--- a/biology/Zoologie/Ariane_versicolore/Ariane_versicolore.xlsx
+++ b/biology/Zoologie/Ariane_versicolore/Ariane_versicolore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysuronia versicolor
 L'Ariane versicolore (Chrysuronia versicolor) est une espèce d'oiseaux de la famille des Trochilidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition comprend l'Argentine, la Bolivie, le Brésil, la Colombie, le Paraguay, le Guyana et le Venezuela.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce habite divers milieux tropicaux ou subtropicaux : les forêts sèches et les forêts humides de basse altitude, les broussailles sèches mais aussi les anciennes forêts fortement dégradées.
 </t>
@@ -574,9 +590,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D'après Alan P. Peterson[1], il existe 6 sous-espèces :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson, il existe 6 sous-espèces :
 C. versicolor hollandi (Todd, 1913) ;
 C. versicolor kubtchecki Ruschi, 1959 ;
 C. versicolor millerii (Bourcier, 1847) ;
